--- a/Windows 10_final.xlsx
+++ b/Windows 10_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breno Alencar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breno Alencar\Documents\Insper\Semestre 2\CDados\projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB5E19-DFF2-439A-ACCB-48A0D09EA5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFD0C45-7880-4AD0-A970-8AB5894B7BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="476">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2144,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="B246" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4565,10 +4565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5965,6 +5965,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>231</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>428</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>422</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>104</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>120</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>66</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>448</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>330</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>335</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>294</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>90</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>377</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>107</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>453</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>94</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>267</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>317</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>118</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>297</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Windows 10_final.xlsx
+++ b/Windows 10_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breno Alencar\Documents\Insper\Semestre 2\CDados\projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breno Alencar\Documents\Insper\Semestre 2\CDados\proj2copia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFD0C45-7880-4AD0-A970-8AB5894B7BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DFC66-CFC2-41F9-B332-4521FD9579C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="476">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1740,7 +1740,7 @@
 armazenamento: 4 gb de espaço disponível</t>
   </si>
   <si>
-    <t>Relevante/Irrelevante</t>
+    <t>Relevância</t>
   </si>
 </sst>
 </file>
@@ -2144,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:B337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,6 +2157,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2179,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2195,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2243,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2323,7 +2326,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2347,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2427,7 +2430,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2451,7 +2454,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3123,7 +3126,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3163,7 +3166,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,7 +3174,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,7 +3214,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3443,7 +3446,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,7 +3470,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3475,7 +3478,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3907,7 +3910,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4195,7 +4198,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4246,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4443,7 +4446,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4475,7 +4478,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4491,7 +4494,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4550,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4567,11 +4570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="105.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4586,7 +4592,7 @@
         <v>302</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4616,7 @@
         <v>305</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4640,7 @@
         <v>308</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4752,7 @@
         <v>322</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4818,7 +4824,7 @@
         <v>331</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4840,7 @@
         <v>333</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +4920,7 @@
         <v>343</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4944,7 @@
         <v>346</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4978,7 +4984,7 @@
         <v>351</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +5032,7 @@
         <v>357</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5144,7 @@
         <v>371</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5216,7 @@
         <v>380</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5224,7 @@
         <v>381</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5280,7 @@
         <v>388</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5304,7 @@
         <v>391</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5432,7 @@
         <v>407</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5440,7 @@
         <v>408</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5480,7 @@
         <v>413</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5496,7 @@
         <v>415</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,7 +5560,7 @@
         <v>423</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +5576,7 @@
         <v>425</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5634,7 +5640,7 @@
         <v>433</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +5720,7 @@
         <v>443</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5722,7 +5728,7 @@
         <v>444</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5730,7 +5736,7 @@
         <v>445</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +5816,7 @@
         <v>455</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5922,7 +5928,7 @@
         <v>469</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5938,7 +5944,7 @@
         <v>471</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6034,7 +6040,7 @@
         <v>110</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +6128,7 @@
         <v>403</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +6168,7 @@
         <v>90</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
